--- a/results_UK_post.xlsx
+++ b/results_UK_post.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="227">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -47,244 +47,241 @@
     <t>Return on Investment</t>
   </si>
   <si>
+    <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
+  </si>
+  <si>
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(118849.7698, 179781.3347), mean=[137587.6127, 154010.4156], var=[687565.4578, 182803349.6856])</t>
+    <t>Pbox: ~ (range=[(135587.9644, 179781.3347), mean=[156556.5042, 158812.7949], var=[23657883.7027, 45586760.4212])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(51527.6931, 65086.9157), mean=[55762.5763, 60852.0325], var=[0.0, 11566057.1363])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-41623.7137, 32867.0738), mean=[-21416.3582, 5675.0201], var=[206387.5095, 356530418.5915])</t>
+    <t>Pbox: ~ (range=[(-24217.359, 33535.2338), mean=[-1851.821, 11169.6958], var=[3019681.5317, 139526201.5117])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(184747.481, 242500.0738), mean=[207113.019, 220134.5358], var=[3019681.5317, 139526201.5117])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-19.8555, 15.6784), mean=[-10.2161, 2.7071], var=[0.047, 81.1292])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(181288.2793, 344385.786), mean=[243100.3139, 291781.3712], var=[125400.4245, 1556397118.0505])</t>
+    <t>Pbox: ~ (range=[(-11.5523, 15.9971), mean=[-0.8834, 5.3282], var=[0.6871, 31.7495])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(254176.8813, 344385.786), mean=[296978.5277, 301584.1395], var=[98573565.7002, 189943005.0427])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(80383.3424, 102460.5163), mean=[86694.2651, 96149.5936], var=[0.0, 34896893.2467])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(98451.682, 103086.202), mean=98915.934, var=[858866.2597, 1366654.2596])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-70165.9591, 119643.2415), mean=[-6717.0795, 65217.3082], var=[0.0, 2591200961.0027])</t>
+    <t>Pbox: ~ (range=[(10868.9629, 123155.0415), mean=[55454.2262, 78569.7782], var=[19005390.6836, 501093925.035])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(192104.6439, 362143.3153), mean=[247168.9502, 307079.009], var=[0.0, 1706541586.634])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-33.4709, 57.0727), mean=[-3.2042, 31.1102], var=[0.0, 0.059])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(186704.8082, 352726.0026), mean=[249624.886, 299178.6004], var=[129936.5795, 1612697235.9658])</t>
+    <t>Pbox: ~ (range=[(5.1848, 58.7479), mean=[26.453, 37.4797], var=[4.3247, 114.0249])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(260900.012, 352726.0026), mean=[304468.9213, 309157.0933], var=[102139303.0739, 196813882.3124])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(79260.299, 101479.6342), mean=[85628.6583, 95111.2749], var=[0.0, 35212201.7904])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-63768.5481, 129106.5015), mean=[793.2405, 73731.3189], var=[0.0, 2669996454.2244])</t>
+    <t>Pbox: ~ (range=[(18572.9757, 132618.3015), mean=[63931.3536, 87259.9237], var=[20105233.1266, 514720221.4402])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(207165.8196, 491249.8168), mean=[288563.7561, 409851.8804], var=[0.0, 5807773400.5629])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-30.4191, 61.5869), mean=[0.3784, 35.1716], var=[0.0, 0.0608])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(192038.7319, 360618.6383), mean=[255928.5315, 306245.9657], var=[133972.5979, 1662789948.3054])</t>
+    <t>Pbox: ~ (range=[(8.8598, 63.2621), mean=[30.4968, 41.6251], var=[4.575, 117.1256])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(267377.4293, 360618.6383), mean=[311617.8208, 316378.2468], var=[105311897.7888, 202927206.6062])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(78166.5455, 100510.2956), mean=[84585.3771, 94091.4641], var=[0.0, 35488411.14])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-57465.2858, 138092.8907), mean=[8070.752, 81886.7619], var=[0.0, 2739908849.6055])</t>
+    <t>Pbox: ~ (range=[(26019.7316, 141604.6907), mean=[72054.9397, 95569.4826], var=[21097911.206, 526783985.9405])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(229673.7512, 629342.7075), mean=[335624.7332, 523391.7255], var=[0.0, 12986040829.0478])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-27.4123, 65.8736), mean=[3.8499, 39.062], var=[0.0, 0.0623])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(197360.6979, 368180.9333), mean=[262099.5558, 313085.6795], var=[137557.0947, 1707278636.5244])</t>
+    <t>Pbox: ~ (range=[(12.412, 67.5489), mean=[34.3719, 45.5889], var=[4.8009, 119.8708])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(273700.6028, 368180.9333), mean=[318528.9234, 323352.6127], var=[108129564.6812, 208356614.7133])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(77104.0975, 99556.7814), mean=[83567.3101, 93093.5688], var=[0.0, 35730423.0129])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-51189.8056, 146717.6337), mean=[15199.4465, 89783.8311], var=[0.0, 2801856201.8334])</t>
+    <t>Pbox: ~ (range=[(33296.4193, 150229.4337), mean=[79924.3756, 103601.4775], var=[21989278.6023, 537456813.9007])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(259458.3705, 776060.3412), mean=[388577.6976, 646941.0142], var=[0.0, 23662222318.3216])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-24.4188, 69.9879), mean=[7.2505, 42.8291], var=[0.0, 0.0638])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(202743.9936, 375532.7677), mean=[268228.9045, 319802.5942], var=[140745.7888, 1746854852.7209])</t>
+    <t>Pbox: ~ (range=[(15.8832, 71.6631), mean=[38.1259, 49.4204], var=[5.0037, 122.2994])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(279963.6424, 375532.7677), mean=[325308.5663, 330187.8439], var=[110636102.8277, 213186503.7856])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(76075.1557, 98623.5577), mean=[82577.6315, 92121.0819], var=[0.0, 35943001.1979])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-44873.2862, 155098.41), mean=[22265.8924, 97525.1197], var=[0.0, 2856852891.9725])</t>
+    <t>Pbox: ~ (range=[(40492.6826, 158610.21), mean=[87641.5869, 111461.3057], var=[22787127.2343, 546919857.0087])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(296439.2532, 931158.7512), mean=[447659.24, 779938.7644], var=[0.0, 38176727025.2903])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-21.4056, 73.9857), mean=[10.6214, 46.5218], var=[0.0, 0.065])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(208264.8106, 382796.9257), mean=[274410.4272, 326504.4662], var=[143600.207, 1782282230.8757])</t>
+    <t>Pbox: ~ (range=[(19.316, 75.6609), mean=[41.8072, 53.1697], var=[5.1853, 124.4527])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(286263.5619, 382796.9257), mean=[332065.9904, 336994.4972], var=[112879876.5713, 217510067.8615])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(75082.0966, 97715.2668), mean=[81619.4328, 91177.9306], var=[0.0, 36131292.1254])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-38444.1783, 163355.627), mean=[29359.327, 105215.9044], var=[0.0, 2905991139.4329])</t>
+    <t>Pbox: ~ (range=[(47700.893, 166867.427), mean=[95311.2338, 119257.0862], var=[23508458.2766, 555366640.1455])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(340628.3461, 1094514.3782), mean=[513052.5683, 922090.156], var=[0.0, 56812445159.6577])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-18.3388, 77.9246), mean=[14.0051, 50.1905], var=[0.0, 0.0661])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(214002.5346, 390099.3856), mean=[280741.1677, 333302.2463], var=[146186.5921, 1814382938.4217])</t>
+    <t>Pbox: ~ (range=[(22.7545, 79.5998), mean=[45.4658, 56.8885], var=[5.3494, 126.3748])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(292700.5696, 390099.3856), mean=[338913.6313, 343886.3238], var=[114912957.4397, 221427644.4136])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(74127.4641, 96836.7181), mean=[80696.1625, 90268.0197], var=[0.0, 36300410.1459])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-4522.3742, 198918.2507), mean=[63877.5234, 140270.044], var=[0.0, 2950447206.4255])</t>
+    <t>Pbox: ~ (range=[(82321.9807, 202430.0507), mean=[130346.5526, 154405.4788], var=[24167906.8998, 563000594.056])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(419438.5268, 1293432.6289), mean=[612301.1195, 1100570.0362], var=[0.0, 79816875611.8739])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-2.1573, 94.8888), mean=[30.4711, 66.9122], var=[0.0, 0.0671])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(220040.0655, 397569.6398), mean=[287321.6838, 340310.3992], var=[148575.0161, 1844026668.1447])</t>
+    <t>Pbox: ~ (range=[(39.2696, 96.564), mean=[62.1785, 73.6551], var=[5.4995, 128.1119])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(299378.3874, 397569.6398), mean=[345967.4385, 350980.5887], var=[116790426.9528, 225045370.9173])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(73213.9609, 95992.8797), mean=[79811.4324, 89395.4082], var=[0.0, 36455264.745])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(2358.995, 207302.0081), mean=[71305.0563, 148188.1693], var=[0.0, 2991445202.9681])</t>
+    <t>Pbox: ~ (range=[(89843.6369, 210813.8081), mean=[138247.5516, 162409.8934], var=[24778652.2246, 570034682.731])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(505770.3638, 1500734.637), mean=[718397.4416, 1288107.5592], var=[0.0, 107401307340.9207])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(1.1253, 98.8881), mean=[34.0142, 70.6893], var=[0.0, 0.0681])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(226464.168, 405341.046), mean=[294256.3986, 347647.2548], var=[150838.698, 1872122170.4143])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(64438.0416, 89695.3236), mean=[71062.6312, 83070.734], var=[0.0, 52319717.5394])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(15080.6536, 223849.3336), mean=[84540.3703, 164297.5822], var=[0.0, 3157901733.5061])</t>
+    <t>Pbox: ~ (range=[(42.8576, 100.5633), mean=[65.9474, 77.4734], var=[5.6384, 129.7125])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(306404.6026, 405341.046), mean=[353347.2263, 358398.4223], var=[118569840.3215, 228474151.4434])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(72344.4406, 95188.8706), mean=[78969.0302, 88564.281], var=[0.0, 36600868.0633])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(97673.8612, 219454.7346), mean=[146434.5541, 170694.0416], var=[25359660.1377, 576687018.6706])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(599932.4249, 1716677.5716), mean=[831735.1078, 1484874.8887], var=[0.0, 139748118737.3039])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(7.1938, 106.7815), mean=[40.3278, 78.3739], var=[0.0, 0.0719])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(233365.859, 413551.2134), mean=[301653.9867, 355435.3947], var=[153053.5259, 1899611325.7456])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(63615.5011, 88936.4065), mean=[70266.4674, 82285.4402], var=[0.0, 52487634.7029])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(22741.2618, 232882.0415), mean=[92699.8826, 172904.9514], var=[0.0, 3196606444.28])</t>
+    <t>Pbox: ~ (range=[(46.5928, 104.6852), mean=[69.8528, 81.4252], var=[5.7706, 131.2263])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(313891.0543, 413551.2134), mean=[361177.0612, 366265.2065], var=[120310851.0364, 231828933.272])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(71521.9001, 94429.9535), mean=[78172.8664, 87778.9872], var=[0.0, 36742408.6537])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(105919.2301, 228487.4425), mean=[155026.4675, 179380.205], var=[25931938.1884, 583183599.4559])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(702339.855, 1941653.2141), mean=[952803.3139, 1691189.7552], var=[0.0, 177019874510.2788])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(10.8481, 111.0904), mean=[44.2201, 82.4798], var=[0.0, 0.0727])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(240840.832, 422342.4282), mean=[309627.7999, 363802.0774], var=[155297.7844, 1927465757.6921])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(62843.0734, 88227.9797), mean=[69520.6247, 81550.4284], var=[0.0, 52656480.1642])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(30924.6615, 242445.6841), mean=[101385.2026, 182040.6945], var=[0.0, 3235776455.2324])</t>
+    <t>Pbox: ~ (range=[(50.526, 108.994), mean=[73.9514, 85.5687], var=[5.9009, 132.7046])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(321954.2584, 422342.4282), mean=[369585.6865, 374711.0002], var=[122074996.3471, 235228293.5293])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(70749.4724, 93721.5267), mean=[77427.0237, 87043.9754], var=[0.0, 36884786.0235])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(114690.8609, 238051.085), mean=[164146.7449, 188595.2011], var=[26515610.1174, 589753619.0435])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(813518.9159, 2176192.4991), mean=[1082194.9355, 1907516.4796], var=[0.0, 219361962642.4352])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(14.7518, 115.6524), mean=[48.3632, 86.8378], var=[0.0, 0.0736])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(248989.9253, 431862.1214), mean=[318296.3344, 372879.7062], var=[157652.0866, 1956685986.0684])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(62124.021, 87575.5714), mean=[68829.313, 80870.2795], var=[0.0, 52832201.0554])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(39726.1631, 252684.4296), mean=[110709.4169, 191833.8257], var=[0.0, 3276814872.6075])</t>
+    <t>Pbox: ~ (range=[(54.7103, 113.5561), mean=[78.302, 89.9645], var=[6.0337, 134.1996])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(330715.8755, 431862.1214), mean=[378706.9898, 383871.0071], var=[123925643.6326, 238794335.8468])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(70030.4201, 93069.1184), mean=[76735.712, 86363.8265], var=[0.0, 37033018.6485])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(124104.8863, 248289.8306), mean=[173923.8671, 198470.8498], var=[27131936.3904, 596632672.0963])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(934112.0023, 2420970.5297), mean=[1220613.3638, 2134469.1682], var=[0.0, 266933481801.9218])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(18.9503, 120.5366), mean=[52.8111, 91.5094], var=[0.0, 0.0746])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(257919.6361, 442263.3828), mean=[327783.7455, 382806.3432], var=[160199.5097, 1988303120.5042])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(61461.7293, 86984.8324), mean=[68196.8658, 80249.6959], var=[0.0, 53020855.0982])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(49246.6129, 263747.9827), mean=[120791.1189, 202418.8892], var=[0.0, 3321162517.4653])</t>
+    <t>Pbox: ~ (range=[(59.201, 118.4402), mean=[82.9659, 94.6754], var=[6.1739, 135.765])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(340303.2252, 442263.3828), mean=[388680.5183, 393886.0898], var=[125928097.6608, 242652897.043])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(69368.1284, 92478.3794), mean=[76103.2649, 85743.2429], var=[0.0, 37192223.1861])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(134282.9751, 259353.3837), mean=[184491.8571, 209144.5016], var=[27800445.7028, 604060425.6824])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1064883.1773, 2676812.1134), mean=[1368878.4128, 2372816.8779], var=[0.0, 319939916414.2347])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(23.4918, 125.8142), mean=[57.6203, 96.5587], var=[0.0, 0.0756])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(267742.6867, 453705.5274), mean=[338220.4137, 393726.2756], var=[163025.9372, 2023383094.3285])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(60859.7004, 86461.5303), mean=[67627.7461, 79693.4846], var=[0.0, 53228376.0342])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(59592.9656, 275792.1562), mean=[131755.0875, 213936.5424], var=[0.0, 3370296841.168])</t>
+    <t>Pbox: ~ (range=[(64.0562, 123.7178), mean=[88.0071, 99.767], var=[6.326, 137.4552])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(350849.8522, 453705.5274), mean=[399652.0437, 404903.3358], var=[128149868.74, 246934063.8273])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(68766.0994, 91955.0773), mean=[75534.1451, 85187.0316], var=[0.0, 37367426.6747])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(145352.9041, 271397.5572), mean=[195990.839, 220759.6223], var=[28544919.2862, 612284280.3175])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1206724.2814, 2944697.8705), mean=[1527941.5253, 2623480.6267], var=[0.0, 378595499965.4826])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(28.4273, 131.5595), mean=[62.8504, 102.0529], var=[0.0, 0.0767])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(616971.4375, 6486741.6416), mean=[1003243.9788, 5959550.8158], var=[0.0, 6713279754023.965])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-145.3796, 2654.6424), mean=[38.8817, 2403.1597], var=[0.0, 1527620.3899])</t>
+    <t>Pbox: ~ (range=[(69.3368, 129.4632), mean=[93.4924, 105.3077], var=[6.4955, 139.3265])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3015584.395, 6491531.5732), mean=[3534783.0907, 5972332.8776], var=[0.0, 1786063238112.2336])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(998.8166, 2656.9273), mean=[1246.4869, 2409.257], var=[0.0, 406422.3033])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -374,10 +371,10 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(4169.2206, 6847.5312), mean=[5038.0603, 5650.5496], var=[3497.2929, 311610.2338])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(94849.7698, 155781.3347), mean=[113587.6127, 130010.4156], var=[687565.4578, 182803349.6856])</t>
+    <t>Pbox: ~ (range=[(4904.9655, 6847.5312), mean=5876.2483, var=73812.048)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(111587.9644, 155781.3347), mean=[132556.5042, 134812.7949], var=[23657883.7027, 45586760.4212])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1549.6768, 2163.4118), mean=1856.5443, var=7367.7962)</t>
@@ -392,22 +389,19 @@
     <t>Pbox: ~ (range=[(9340.7095, 10816.8979), mean=10053.3522, var=[0.0, 0.0])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(53762.854, 128253.6415), mean=[73970.2095, 101061.5878], var=[206387.5095, 356530418.5915])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-5017.188, 69473.5995), mean=[15190.1675, 42281.5458], var=[206387.5095, 356530418.5915])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(123743.2863, 198234.0738), mean=[143950.6418, 171042.0201], var=[206387.5095, 356530418.5915])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6808.276, 13977.3972), mean=[9701.0017, 11534.0805], var=[2446.6762, 2686836.6315])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(154888.2793, 317985.786), mean=[216700.3139, 265381.3712], var=[125400.4245, 1556397118.0505])</t>
+    <t>Pbox: ~ (range=[(70501.0487, 128253.6415), mean=[92866.5868, 105888.1035], var=[3019681.5317, 139526201.5117])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(12389.1667, 70141.7595), mean=[34754.7047, 47776.2214], var=[3019681.5317, 139526201.5117])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(141149.641, 198902.2338), mean=[163515.179, 176536.6958], var=[3019681.5317, 139526201.5117])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10012.1706, 13977.3972), mean=11994.7839, var=307547.237)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(227776.8813, 317985.786), mean=[270578.5277, 275184.1395], var=[98573565.7002, 189943005.0427])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3098.5625, 4325.7193), mean=3712.1409, var=29456.1429)</t>
@@ -422,262 +416,256 @@
     <t>Pbox: ~ (range=[(18564.8417, 21498.7949), mean=19981.2329, var=[0.0, 0.0])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(78827.763, 264002.4436), mean=[142276.6426, 209576.5103], var=[0.0, 2372107736.057])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3511.8, 8146.32), mean=3976.052, var=[858866.2597, 1366654.2596])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-24258.439, 165550.7616), mean=[39190.4405, 111124.8282], var=[0.0, 2591200961.0027])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(203577.3272, 467877.3153), mean=[275074.5847, 398997.2624], var=[0.0, 6172263098.6362])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6930.3212, 14227.9562), mean=[9874.902, 11740.8405], var=[2535.1808, 2784028.5483])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(157664.8082, 323686.0026), mean=[220584.886, 270138.6004], var=[129936.5795, 1612697235.9658])</t>
+    <t>Pbox: ~ (range=[(151716.365, 264002.4436), mean=[196301.6283, 219417.1803], var=[19005390.6836, 501093925.035])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(56776.483, 169062.5616), mean=[101361.7463, 124477.2982], var=[19005390.6836, 501093925.035])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(302018.6039, 472057.2753), mean=[357082.9102, 416992.969], var=[0.0, 1706541586.634])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10191.6489, 14227.9562), mean=12209.8025, var=318672.2549)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(231860.012, 323686.0026), mean=[275428.9213, 280117.0933], var=[102139303.0739, 196813882.3124])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(20383.2978, 28455.9123), mean=24419.605, var=1274689.0196)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(85225.174, 273465.7036), mean=[149786.9626, 218090.521], var=[0.0, 2447565255.8268])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-17861.0281, 175014.0216), mean=[46700.7606, 119638.839], var=[0.0, 2669996454.2244])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(139808.7791, 596983.8168), mean=[245904.2783, 493900.4209], var=[0.0, 23263916409.3872])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7037.1311, 14447.2368), mean=[10027.0936, 11921.7899], var=[2613.9271, 2870504.508])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(160094.7319, 328674.6383), mean=[223984.5315, 274301.9657], var=[133972.5979, 1662789948.3054])</t>
+    <t>Pbox: ~ (range=[(159420.3778, 273465.7036), mean=[204778.7557, 228107.3258], var=[20105233.1266, 514720221.4402])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(64480.4958, 178525.8216), mean=[109838.8736, 133167.4437], var=[20105233.1266, 514720221.4402])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(320591.5796, 604675.5768), mean=[401989.5161, 523277.6404], var=[0.0, 5807773400.5629])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10348.7222, 14447.2368), mean=12397.9795, var=328570.6768)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(235433.4293, 328674.6383), mean=[279673.8208, 284434.2468], var=[105311897.7888, 202927206.6062])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(20697.4443, 28894.4737), mean=24795.959, var=1314282.7071)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(91528.4363, 282452.0928), mean=[157064.4741, 226245.964], var=[0.0, 2514557224.9725])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-11557.7657, 184000.4107), mean=[53978.2721, 127794.282], var=[0.0, 2739908849.6055])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(82343.4933, 735076.7075), mean=[212871.3225, 601479.5398], var=[0.0, 53933529080.9176])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7130.6505, 14639.2322), mean=[10160.3478, 12080.2235], var=[2683.8639, 2947306.1391])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(162222.2979, 333042.5333), mean=[226961.1558, 277947.2795], var=[137557.0947, 1707278636.5244])</t>
+    <t>Pbox: ~ (range=[(166867.1337, 282452.0928), mean=[212902.3418, 236416.8847], var=[21097911.206, 526783985.9405])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(71927.2517, 187512.2107), mean=[117962.4597, 141477.0027], var=[21097911.206, 526783985.9405])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(346611.3112, 746280.2675), mean=[452562.2932, 640329.2855], var=[0.0, 12986040829.0479])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10486.2507, 14639.2322), mean=12562.7415, var=337361.7321)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(238562.2028, 333042.5333), mean=[283390.5234, 288214.2127], var=[108129564.6812, 208356614.7133])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(20972.5013, 29278.4645), mean=25125.4829, var=1349446.9283)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(97803.9165, 291076.8358), mean=[164193.1686, 234143.0332], var=[0.0, 2573948089.5489])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-5282.2855, 192625.1538), mean=[61106.9666, 135691.3511], var=[0.0, 2801856201.8334])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(31153.6878, 881794.3412), mean=[178401.0384, 720567.8517], var=[0.0, 99496923840.1444])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7212.8243, 14807.9353), mean=[10277.436, 12219.4365], var=[2746.0783, 3015627.2804])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(164091.7536, 336880.5277), mean=[229576.6645, 281150.3542], var=[140745.7888, 1746854852.7209])</t>
+    <t>Pbox: ~ (range=[(174143.8214, 291076.8358), mean=[220771.7777, 244448.8796], var=[21989278.6023, 537456813.9007])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(79203.9394, 196136.9538), mean=[125831.8956, 149508.9975], var=[21989278.6023, 537456813.9007])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(379907.7305, 896509.7012), mean=[509027.0576, 767390.3742], var=[0.0, 23662222318.3216])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10607.0946, 14807.9353), mean=12707.5149, var=345182.0729)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(241311.4024, 336880.5277), mean=[286656.3263, 291535.6039], var=[110636102.8277, 213186503.7856])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21214.1892, 29615.8706), mean=25415.0299, var=1380728.2916)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(104120.4359, 299457.6121), mean=[171259.6144, 241884.3218], var=[0.0, 2626698859.3312])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1034.2339, 201005.93), mean=[68173.4124, 143432.6398], var=[0.0, 2856852891.9725])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-13719.5984, 1036892.7512), mean=[147908.4409, 850496.2897], var=[0.0, 161025524160.2234])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7285.5977, 14957.339), mean=[10381.1295, 12342.7237], var=[2801.7705, 3076786.2071])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(165747.3466, 340279.4617), mean=[231892.9632, 283987.0022], var=[143600.207, 1782282230.8757])</t>
+    <t>Pbox: ~ (range=[(181340.0847, 299457.6121), mean=[228488.989, 252308.7078], var=[22787127.2343, 546919857.0087])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(86400.2027, 204517.73), mean=[133549.1069, 157368.8258], var=[22787127.2343, 546919857.0087])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(420400.4132, 1055119.9112), mean=[571620.4, 903899.9244], var=[0.0, 38176727025.2903])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10714.1142, 14957.339), mean=12835.7266, var=352182.5949)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(243746.0979, 340279.4617), mean=[289548.5264, 294477.0332], var=[112879876.5713, 217510067.8615])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21428.2284, 29914.6779), mean=25671.4532, var=1408730.3796)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(110549.5438, 307714.8291), mean=[178353.0491, 249575.1065], var=[0.0, 2673848750.0955])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7463.3417, 209263.1471), mean=[75266.847, 151123.4244], var=[0.0, 2905991139.4329])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-52163.7767, 1200248.3782), mean=[123362.91, 990826.1656], var=[0.0, 239268541488.7331])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7350.9154, 15091.4363), mean=[10474.1997, 12453.3801], var=[2852.2333, 3132202.242])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(167233.3242, 343330.1752), mean=[233971.9573, 286533.0359], var=[146186.5921, 1814382938.4217])</t>
+    <t>Pbox: ~ (range=[(188548.2951, 307714.8291), mean=[236158.6359, 260104.4883], var=[23508458.2766, 555366640.1455])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(93608.4131, 212774.9471), mean=[141218.7539, 165164.6063], var=[23508458.2766, 555366640.1455])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(468101.3061, 1221987.3382), mean=[640525.5283, 1049563.116], var=[0.0, 56812445159.6577])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10810.1696, 15091.4363), mean=12950.803, var=358525.76)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(245931.3592, 343330.1752), mean=[292144.4209, 297117.1134], var=[114912957.4397, 221427644.4136])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21620.3393, 30182.8725), mean=25901.6059, var=1434103.0401)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(117165.8165, 315971.9215), mean=[185565.7142, 257323.7148], var=[0.0, 2716520429.209])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(14079.6145, 217520.2394), mean=[82479.5121, 158872.0328], var=[0.0, 2950447206.4255])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-56686.151, 1399166.6289), mean=[132210.0075, 1168568.8907], var=[0.0, 334865226057.8002])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7410.7224, 15214.2201), mean=[10559.4177, 12554.7008], var=[2898.8336, 3183376.7514])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(168593.934, 346123.5084), mean=[235875.5524, 288864.2678], var=[148575.0161, 1844026668.1447])</t>
+    <t>Pbox: ~ (range=[(195863.8515, 315971.9215), mean=[243888.4233, 267947.3496], var=[24167906.8998, 563000594.056])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(100923.9694, 221032.0394), mean=[148948.5413, 173007.4676], var=[24167906.8998, 563000594.056])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(550423.2868, 1424417.3889), mean=[743285.8795, 1231554.7962], var=[0.0, 79816875611.874])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10898.1211, 15214.2201), mean=13056.1706, var=364383.4213)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(247932.2559, 346123.5084), mean=[294521.307, 299534.4573], var=[116790426.9528, 225045370.9173])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21796.2423, 30428.4403), mean=26112.3413, var=1457533.6853)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(124047.1858, 324355.6789), mean=[192993.2471, 265241.8401], var=[0.0, 2755884835.9437])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(20960.9838, 225903.9969), mean=[89907.0451, 166790.158], var=[0.0, 2991445202.9681])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-54327.156, 1606468.637), mean=[147533.0238, 1356271.991], var=[0.0, 448228091482.0119])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7466.9637, 15329.6836), mean=[10639.555, 12649.9806], var=[2943.0001, 3231878.5275])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(169873.4234, 348750.3014), mean=[237665.654, 291056.5102], var=[150838.698, 1872122170.4143])</t>
+    <t>Pbox: ~ (range=[(203385.5077, 324355.6789), mean=[251789.4224, 275951.7642], var=[24778652.2246, 570034682.731])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(108445.6257, 229415.7969), mean=[156849.5404, 181011.8822], var=[24778652.2246, 570034682.731])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(640266.9238, 1635231.197), mean=[852894.0016, 1422604.1192], var=[0.0, 107401307340.9208])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10980.8289, 15329.6836), mean=13155.2563, var=369935.1497)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(249813.858, 348750.3014), mean=[296756.4817, 301807.6777], var=[118569840.3215, 228474151.4434])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21961.6578, 30659.3672), mean=26310.5125, var=1479740.599)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(10658.4427, 16005.2479), mean=[11139.6998, 15446.3164], var=[0.0, 7145228.2953])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(136768.8444, 340903.0044), mean=[206228.5611, 281351.253], var=[0.0, 2915270030.2022])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(33682.6424, 242451.3224), mean=[103142.3591, 182899.5709], var=[0.0, 3157901733.5061])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-39246.5023, 1830317.9706), mean=[175209.9671, 1561825.3309], var=[0.0, 581670161811.7163])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7521.5842, 15441.8195), mean=[10717.3829, 12742.5147], var=[2986.2134, 3279333.556])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(171116.04, 351301.3943), mean=[239404.1677, 293185.5757], var=[153053.5259, 1899611325.7456])</t>
+    <t>Pbox: ~ (range=[(211215.732, 332996.6054), mean=[259976.4249, 284235.9124], var=[25359660.1377, 576687018.6706])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(116275.8499, 238056.7233), mean=[165036.5429, 189296.0304], var=[25359660.1377, 576687018.6706])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(737940.7849, 1854685.9316), mean=[969743.4678, 1622883.2487], var=[0.0, 139748118737.3039])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(11061.1532, 15441.8195), mean=13251.4864, var=375367.0628)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(251641.2353, 351301.3943), mean=[298927.2422, 304015.3874], var=[120310851.0364, 231828933.272])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22122.3064, 30883.6391), mean=26502.9727, var=1501468.2511)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(144429.4526, 349935.7123), mean=[214388.0734, 289958.6222], var=[0.0, 2952483126.5549])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(41343.2505, 251484.0303), mean=[111301.8714, 191506.9402], var=[0.0, 3196606444.28])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-16505.2405, 2063200.0121), mean=[210169.1773, 1777452.6314], var=[0.0, 734161254634.7053])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7576.5288, 15554.621), mean=[10795.6727, 12835.5979], var=[3030.0009, 3327419.1681])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(172366.0311, 353867.6273), mean=[241152.999, 295327.2765], var=[155297.7844, 1927465757.6921])</t>
+    <t>Pbox: ~ (range=[(219461.1008, 342029.3133), mean=[268568.3383, 292922.0758], var=[25931938.1884, 583183599.4559])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(124521.2188, 247089.4313), mean=[173628.4563, 197982.1938], var=[25931938.1884, 583183599.4559])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(843860.015, 2083173.3741), mean=[1094323.4739, 1832709.9152], var=[0.0, 177019874510.2789])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(11141.9542, 15554.621), mean=13348.2876, var=380871.1552)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(253479.4575, 353867.6273), mean=[301110.8855, 306236.1993], var=[122074996.3471, 235228293.5293])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22283.9084, 31109.242), mean=26696.5752, var=1523484.6207)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(152612.8523, 359499.3548), mean=[223073.3933, 299094.3653], var=[0.0, 2990152832.8116])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(49526.6503, 261047.6728), mean=[119987.1913, 200642.6832], var=[0.0, 3235776455.2324])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(14419.421, 2305645.6962), mean=[252979.097, 2003459.2306], var=[0.0, 906052830477.5538])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7633.7426, 15672.0809), mean=[10877.1956, 12932.5253], var=[3075.9355, 3377862.5794])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(173667.6443, 356539.8404), mean=[242974.0533, 297557.4251], var=[157652.0866, 1956685986.0684])</t>
+    <t>Pbox: ~ (range=[(228232.7317, 351592.9558), mean=[277688.6156, 302137.0719], var=[26515610.1174, 589753619.0435])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(133292.8497, 256653.0738), mean=[182748.7336, 207197.1898], var=[26515610.1174, 589753619.0435])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(958550.8759, 2321224.4591), mean=[1227226.8955, 2052548.4396], var=[0.0, 219361962642.4353])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(11226.0921, 15672.0809), mean=13449.0865, var=386645.1318)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(255393.5945, 356539.8404), mean=[303384.7088, 308548.7261], var=[123925643.6326, 238794335.8468])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22452.1841, 31344.1618), mean=26898.173, var=1546580.5271)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(161414.3539, 369738.1004), mean=[232397.6077, 308887.4965], var=[0.0, 3029629166.1783])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(58328.1519, 271286.4184), mean=[129311.4056, 210435.8145], var=[0.0, 3276814872.6075])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(54145.5841, 2558330.1258), mean=[304276.9783, 2240300.5528], var=[0.0, 1097803983456.391])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7695.1704, 15798.1922), mean=[10964.7231, 13036.5917], var=[3125.638, 3432443.8132])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(175065.1269, 359408.8737), mean=[244929.2364, 299951.834], var=[160199.5097, 1988303120.5042])</t>
+    <t>Pbox: ~ (range=[(237646.7571, 361831.7014), mean=[287465.7379, 312012.7206], var=[27131936.3904, 596632672.0963])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(142706.8751, 266891.8193), mean=[192525.8559, 217072.8385], var=[27131936.3904, 596632672.0963])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1082655.7623, 2569514.2897), mean=[1369157.1238, 2283012.9282], var=[0.0, 266933481801.9219])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(11316.4271, 15798.1922), mean=13557.3097, var=392892.7419)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(257448.7161, 359408.8737), mean=[305826.0091, 311031.5807], var=[125928097.6608, 242652897.043])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22632.8542, 31596.3845), mean=27114.6193, var=1571570.9674)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(170934.8037, 380801.6535), mean=[242479.3097, 319472.56], var=[0.0, 3072299776.883])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(67848.6017, 282349.9715), mean=[139393.1076, 221020.8779], var=[0.0, 3321162517.4653])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(103392.197, 2822078.1085), mean=[364771.4703, 2488670.6542], var=[0.0, 1309940297684.09])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7762.7572, 15936.948), mean=[11061.0264, 13151.0923], var=[3180.7842, 3493003.0096])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(176602.7266, 362565.5673), mean=[247080.4536, 302586.3156], var=[163025.9372, 2023383094.3284])</t>
+    <t>Pbox: ~ (range=[(247824.8458, 372895.2545), mean=[298033.7279, 322686.3724], var=[27800445.7028, 604060425.6824])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(152884.9638, 277955.3724), mean=[203093.8459, 227746.4904], var=[27800445.7028, 604060425.6824])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1216938.7373, 2828867.6734), mean=[1520933.9728, 2524872.4379], var=[0.0, 319939916414.2348])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(11415.8194, 15936.948), mean=13676.3837, var=399824.6161)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(259709.8921, 362565.5673), mean=[308512.0836, 313763.3758], var=[128149868.74, 246934063.8273])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22831.6389, 31873.896), mean=27352.7674, var=1599298.4642)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(181281.1564, 392845.827), mean=[253443.2783, 330990.2131], var=[0.0, 3119589192.9352])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(78194.9544, 294394.145), mean=[150357.0763, 232538.5311], var=[0.0, 3370296841.168])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(162985.1627, 3097870.2647), mean=[435336.057, 2749344.0204], var=[0.0, 1543069713890.1392])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(106992.4061, 217943.6295), mean=[119750.5628, 201543.252], var=[0.0, 2016740092.3288])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2434077.2378, 4958217.5723), mean=[2705188.0681, 4609709.549], var=[0.0, 1075942302481.8154])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3196616.7985, 5720757.1329), mean=[3467727.6288, 5372249.1096], var=[0.0, 1075942302481.815])</t>
+    <t>Pbox: ~ (range=[(258894.7749, 384939.428), mean=[309532.7098, 334301.493], var=[28544919.2862, 612284280.3175])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(163954.8929, 289999.5459), mean=[214592.8278, 239361.611], var=[28544919.2862, 612284280.3175])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1362291.6414, 3100265.2305), mean=[1683508.8853, 2779047.9867], var=[0.0, 378595499965.4826])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(156115.5322, 217943.6295), mean=[170793.8555, 203265.3063], var=[0.0, 367120834.652])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3551628.3587, 4958217.5723), mean=[3866281.0964, 4643564.8345], var=[0.0, 204838819002.7787])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(4314167.9193, 5720757.1329), mean=[4628820.6571, 5406104.3952], var=[0.0, 204838819002.7788])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(44929.5523, 62723.4815), mean=[49147.1006, 58505.9332], var=[0.0, 30524353.2156])</t>
@@ -689,31 +677,25 @@
     <t>Pbox: ~ (range=[(129890.6501, 274683.2811), mean=[155025.7958, 249548.1353], var=[0.0, 2867248434.3163])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(221810.0994, 278838.7446), mean=[222291.3565, 278277.1671], var=[0.0, 813029709.5955])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1040282.7217, 1386144.2093), mean=[1085232.8733, 1341194.0577], var=[0.0, 19455275066.2356])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1810472.5892, 4680474.4112), mean=[2082823.4835, 4331948.1669], var=[0.0, 1463669734226.5837])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(49833.36, 114716.64), mean=[50105.4364, 103586.4372], var=[0.0, 897900952.0362])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1437103.5904, 1501986.8704), mean=[1437375.6668, 1490856.6676], var=[0.0, 897900952.0362])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(308485.7187, 3243370.8208), mean=[580836.613, 2894844.5764], var=[0.0, 1543069713890.1392])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-152381.8373, 2782503.2647), mean=[119969.057, 2433977.0204], var=[0.0, 1543069713890.1394])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72.6898, 1327.3212), mean=[57.2281, 1161.0658], var=[0.0, 351128.6352])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(851716.5135, 22968980.8277), mean=[1648652.8373, 21807441.8929], var=[0.0, 109798614662016.64])</t>
+    <t>Pbox: ~ (range=[(269248.4936, 311800.0266), mean=[269660.9066, 311317.7201], var=[0.0, 452630730.611])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1087721.1159, 1419105.4914), mean=[1132671.2675, 1374155.3398], var=[0.0, 17496476200.7255])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2895062.4279, 4633036.017), mean=[3216279.6718, 4311818.7732], var=[0.0, 378595499965.4825])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1507792.1975, 3245765.7866), mean=[1829009.4414, 2924548.5428], var=[0.0, 378595499965.4825])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1046924.6414, 2784898.2305), mean=[1368141.8853, 2463680.9867], var=[0.0, 378595499965.4826])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(499.4083, 1328.4637), mean=[652.6367, 1175.2353], var=[0.0, 86150.172])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(9940504.613, 23181707.8482), mean=[11102043.5479, 22020168.9133], var=[0.0, 35238007242432.38])</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1122,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1150,43 +1132,43 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1194,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1203,43 +1185,43 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1250,57 +1232,57 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>58780.04202809719</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
+        <v>58111.88202809718</v>
+      </c>
+      <c r="D4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="E4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="F4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="G4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="H4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="I4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="J4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="K4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="L4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="M4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="N4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="O4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="P4">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="Q4">
+        <v>94939.88202809718</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1309,46 +1291,46 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1468,52 +1450,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1527,46 +1509,46 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1574,55 +1556,55 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1693,287 +1675,287 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2029,7 +2011,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2038,54 +2020,54 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2141,7 +2123,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2197,7 +2179,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>89000</v>
@@ -2253,10 +2235,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -2265,51 +2247,51 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2365,231 +2347,231 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="O17" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="Q17" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="R17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2645,10 +2627,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2657,107 +2639,107 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2813,7 +2795,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2869,63 +2851,63 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>668.16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N23" t="s">
-        <v>136</v>
-      </c>
-      <c r="O23" t="s">
-        <v>136</v>
-      </c>
-      <c r="P23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R23" t="s">
-        <v>227</v>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2981,7 +2963,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3037,58 +3019,58 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>58780.04202809719</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>19</v>
-      </c>
-      <c r="R26" t="s">
-        <v>228</v>
+        <v>58111.88202809718</v>
+      </c>
+      <c r="D26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="E26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="F26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="G26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="H26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="I26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="J26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="K26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="L26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="M26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="N26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="O26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="P26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="Q26">
+        <v>94939.88202809718</v>
+      </c>
+      <c r="R26">
+        <v>1387270.230421458</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3099,52 +3081,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R27" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3205,7 +3187,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29">
         <v>158000</v>
@@ -3261,58 +3243,58 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3373,58 +3355,58 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3432,111 +3414,111 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R33" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34">
         <v>168796</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N34" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O34" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="R34" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/results_UK_post.xlsx
+++ b/results_UK_post.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="233">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -47,241 +47,244 @@
     <t>Return on Investment</t>
   </si>
   <si>
+    <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0)</t>
+  </si>
+  <si>
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(135587.9644, 179781.3347), mean=[156556.5042, 158812.7949], var=[23657883.7027, 45586760.4212])</t>
+    <t>Pbox: ~ (range=[(118849.7698, 179781.3347), mean=[137587.6127, 154010.4156], var=[687565.4578, 182803349.6856])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(51527.6931, 65086.9157), mean=[55762.5763, 60852.0325], var=[0.0, 11566057.1363])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-24217.359, 33535.2338), mean=[-1851.821, 11169.6958], var=[3019681.5317, 139526201.5117])</t>
+    <t>Pbox: ~ (range=[(-41623.7137, 32867.0738), mean=[-21416.3582, 5675.0201], var=[206387.5095, 356530418.5915])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(184747.481, 242500.0738), mean=[207113.019, 220134.5358], var=[3019681.5317, 139526201.5117])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-11.5523, 15.9971), mean=[-0.8834, 5.3282], var=[0.6871, 31.7495])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(254176.8813, 344385.786), mean=[296978.5277, 301584.1395], var=[98573565.7002, 189943005.0427])</t>
+    <t>Pbox: ~ (range=[(-19.8555, 15.6784), mean=[-10.2161, 2.7071], var=[0.047, 81.1292])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(181288.2793, 344385.786), mean=[243100.3139, 291781.3712], var=[125400.4245, 1556397118.0505])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(80383.3424, 102460.5163), mean=[86694.2651, 96149.5936], var=[0.0, 34896893.2467])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(10868.9629, 123155.0415), mean=[55454.2262, 78569.7782], var=[19005390.6836, 501093925.035])</t>
+    <t>Pbox: ~ (range=[(98451.682, 103086.202), mean=98915.934, var=[858866.2597, 1366654.2596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-70165.9591, 119643.2415), mean=[-6717.0795, 65217.3082], var=[0.0, 2591200961.0027])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(192104.6439, 362143.3153), mean=[247168.9502, 307079.009], var=[0.0, 1706541586.634])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(5.1848, 58.7479), mean=[26.453, 37.4797], var=[4.3247, 114.0249])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(260900.012, 352726.0026), mean=[304468.9213, 309157.0933], var=[102139303.0739, 196813882.3124])</t>
+    <t>Pbox: ~ (range=[(-33.4709, 57.0727), mean=[-3.2042, 31.1102], var=[0.0, 0.059])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(186704.8082, 352726.0026), mean=[249624.886, 299178.6004], var=[129936.5795, 1612697235.9658])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(79260.299, 101479.6342), mean=[85628.6583, 95111.2749], var=[0.0, 35212201.7904])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(18572.9757, 132618.3015), mean=[63931.3536, 87259.9237], var=[20105233.1266, 514720221.4402])</t>
+    <t>Pbox: ~ (range=[(-63768.5481, 129106.5015), mean=[793.2405, 73731.3189], var=[0.0, 2669996454.2244])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(207165.8196, 491249.8168), mean=[288563.7561, 409851.8804], var=[0.0, 5807773400.5629])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(8.8598, 63.2621), mean=[30.4968, 41.6251], var=[4.575, 117.1256])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(267377.4293, 360618.6383), mean=[311617.8208, 316378.2468], var=[105311897.7888, 202927206.6062])</t>
+    <t>Pbox: ~ (range=[(-30.4191, 61.5869), mean=[0.3784, 35.1716], var=[0.0, 0.0608])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(192038.7319, 360618.6383), mean=[255928.5315, 306245.9657], var=[133972.5979, 1662789948.3054])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(78166.5455, 100510.2956), mean=[84585.3771, 94091.4641], var=[0.0, 35488411.14])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(26019.7316, 141604.6907), mean=[72054.9397, 95569.4826], var=[21097911.206, 526783985.9405])</t>
+    <t>Pbox: ~ (range=[(-57465.2858, 138092.8907), mean=[8070.752, 81886.7619], var=[0.0, 2739908849.6055])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(229673.7512, 629342.7075), mean=[335624.7332, 523391.7255], var=[0.0, 12986040829.0478])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(12.412, 67.5489), mean=[34.3719, 45.5889], var=[4.8009, 119.8708])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(273700.6028, 368180.9333), mean=[318528.9234, 323352.6127], var=[108129564.6812, 208356614.7133])</t>
+    <t>Pbox: ~ (range=[(-27.4123, 65.8736), mean=[3.8499, 39.062], var=[0.0, 0.0623])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(197360.6979, 368180.9333), mean=[262099.5558, 313085.6795], var=[137557.0947, 1707278636.5244])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(77104.0975, 99556.7814), mean=[83567.3101, 93093.5688], var=[0.0, 35730423.0129])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(33296.4193, 150229.4337), mean=[79924.3756, 103601.4775], var=[21989278.6023, 537456813.9007])</t>
+    <t>Pbox: ~ (range=[(-51189.8056, 146717.6337), mean=[15199.4465, 89783.8311], var=[0.0, 2801856201.8334])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(259458.3705, 776060.3412), mean=[388577.6976, 646941.0142], var=[0.0, 23662222318.3216])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(15.8832, 71.6631), mean=[38.1259, 49.4204], var=[5.0037, 122.2994])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(279963.6424, 375532.7677), mean=[325308.5663, 330187.8439], var=[110636102.8277, 213186503.7856])</t>
+    <t>Pbox: ~ (range=[(-24.4188, 69.9879), mean=[7.2505, 42.8291], var=[0.0, 0.0638])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(202743.9936, 375532.7677), mean=[268228.9045, 319802.5942], var=[140745.7888, 1746854852.7209])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(76075.1557, 98623.5577), mean=[82577.6315, 92121.0819], var=[0.0, 35943001.1979])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(40492.6826, 158610.21), mean=[87641.5869, 111461.3057], var=[22787127.2343, 546919857.0087])</t>
+    <t>Pbox: ~ (range=[(-44873.2862, 155098.41), mean=[22265.8924, 97525.1197], var=[0.0, 2856852891.9725])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(296439.2532, 931158.7512), mean=[447659.24, 779938.7644], var=[0.0, 38176727025.2903])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(19.316, 75.6609), mean=[41.8072, 53.1697], var=[5.1853, 124.4527])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(286263.5619, 382796.9257), mean=[332065.9904, 336994.4972], var=[112879876.5713, 217510067.8615])</t>
+    <t>Pbox: ~ (range=[(-21.4056, 73.9857), mean=[10.6214, 46.5218], var=[0.0, 0.065])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(208264.8106, 382796.9257), mean=[274410.4272, 326504.4662], var=[143600.207, 1782282230.8757])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(75082.0966, 97715.2668), mean=[81619.4328, 91177.9306], var=[0.0, 36131292.1254])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(47700.893, 166867.427), mean=[95311.2338, 119257.0862], var=[23508458.2766, 555366640.1455])</t>
+    <t>Pbox: ~ (range=[(-38444.1783, 163355.627), mean=[29359.327, 105215.9044], var=[0.0, 2905991139.4329])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(340628.3461, 1094514.3782), mean=[513052.5683, 922090.156], var=[0.0, 56812445159.6577])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(22.7545, 79.5998), mean=[45.4658, 56.8885], var=[5.3494, 126.3748])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(292700.5696, 390099.3856), mean=[338913.6313, 343886.3238], var=[114912957.4397, 221427644.4136])</t>
+    <t>Pbox: ~ (range=[(-18.3388, 77.9246), mean=[14.0051, 50.1905], var=[0.0, 0.0661])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(214002.5346, 390099.3856), mean=[280741.1677, 333302.2463], var=[146186.5921, 1814382938.4217])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(74127.4641, 96836.7181), mean=[80696.1625, 90268.0197], var=[0.0, 36300410.1459])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(82321.9807, 202430.0507), mean=[130346.5526, 154405.4788], var=[24167906.8998, 563000594.056])</t>
+    <t>Pbox: ~ (range=[(-4522.3742, 198918.2507), mean=[63877.5234, 140270.044], var=[0.0, 2950447206.4255])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(419438.5268, 1293432.6289), mean=[612301.1195, 1100570.0362], var=[0.0, 79816875611.8739])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(39.2696, 96.564), mean=[62.1785, 73.6551], var=[5.4995, 128.1119])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(299378.3874, 397569.6398), mean=[345967.4385, 350980.5887], var=[116790426.9528, 225045370.9173])</t>
+    <t>Pbox: ~ (range=[(-2.1573, 94.8888), mean=[30.4711, 66.9122], var=[0.0, 0.0671])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(220040.0655, 397569.6398), mean=[287321.6838, 340310.3992], var=[148575.0161, 1844026668.1447])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(73213.9609, 95992.8797), mean=[79811.4324, 89395.4082], var=[0.0, 36455264.745])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(89843.6369, 210813.8081), mean=[138247.5516, 162409.8934], var=[24778652.2246, 570034682.731])</t>
+    <t>Pbox: ~ (range=[(2358.995, 207302.0081), mean=[71305.0563, 148188.1693], var=[0.0, 2991445202.9681])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(505770.3638, 1500734.637), mean=[718397.4416, 1288107.5592], var=[0.0, 107401307340.9207])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(42.8576, 100.5633), mean=[65.9474, 77.4734], var=[5.6384, 129.7125])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(306404.6026, 405341.046), mean=[353347.2263, 358398.4223], var=[118569840.3215, 228474151.4434])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(72344.4406, 95188.8706), mean=[78969.0302, 88564.281], var=[0.0, 36600868.0633])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(97673.8612, 219454.7346), mean=[146434.5541, 170694.0416], var=[25359660.1377, 576687018.6706])</t>
+    <t>Pbox: ~ (range=[(1.1253, 98.8881), mean=[34.0142, 70.6893], var=[0.0, 0.0681])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(226464.168, 405341.046), mean=[294256.3986, 347647.2548], var=[150838.698, 1872122170.4143])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(64438.0416, 89695.3236), mean=[71062.6312, 83070.734], var=[0.0, 52319717.5394])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(15080.6536, 223849.3336), mean=[84540.3703, 164297.5822], var=[0.0, 3157901733.5061])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(599932.4249, 1716677.5716), mean=[831735.1078, 1484874.8887], var=[0.0, 139748118737.3039])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(46.5928, 104.6852), mean=[69.8528, 81.4252], var=[5.7706, 131.2263])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(313891.0543, 413551.2134), mean=[361177.0612, 366265.2065], var=[120310851.0364, 231828933.272])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(71521.9001, 94429.9535), mean=[78172.8664, 87778.9872], var=[0.0, 36742408.6537])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(105919.2301, 228487.4425), mean=[155026.4675, 179380.205], var=[25931938.1884, 583183599.4559])</t>
+    <t>Pbox: ~ (range=[(7.1938, 106.7815), mean=[40.3278, 78.3739], var=[0.0, 0.0719])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(233365.859, 413551.2134), mean=[301653.9867, 355435.3947], var=[153053.5259, 1899611325.7456])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(63615.5011, 88936.4065), mean=[70266.4674, 82285.4402], var=[0.0, 52487634.7029])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(22741.2618, 232882.0415), mean=[92699.8826, 172904.9514], var=[0.0, 3196606444.28])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(702339.855, 1941653.2141), mean=[952803.3139, 1691189.7552], var=[0.0, 177019874510.2788])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(50.526, 108.994), mean=[73.9514, 85.5687], var=[5.9009, 132.7046])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(321954.2584, 422342.4282), mean=[369585.6865, 374711.0002], var=[122074996.3471, 235228293.5293])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(70749.4724, 93721.5267), mean=[77427.0237, 87043.9754], var=[0.0, 36884786.0235])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(114690.8609, 238051.085), mean=[164146.7449, 188595.2011], var=[26515610.1174, 589753619.0435])</t>
+    <t>Pbox: ~ (range=[(10.8481, 111.0904), mean=[44.2201, 82.4798], var=[0.0, 0.0727])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(240840.832, 422342.4282), mean=[309627.7999, 363802.0774], var=[155297.7844, 1927465757.6921])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(62843.0734, 88227.9797), mean=[69520.6247, 81550.4284], var=[0.0, 52656480.1642])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(30924.6615, 242445.6841), mean=[101385.2026, 182040.6945], var=[0.0, 3235776455.2324])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(813518.9159, 2176192.4991), mean=[1082194.9355, 1907516.4796], var=[0.0, 219361962642.4352])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(54.7103, 113.5561), mean=[78.302, 89.9645], var=[6.0337, 134.1996])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(330715.8755, 431862.1214), mean=[378706.9898, 383871.0071], var=[123925643.6326, 238794335.8468])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(70030.4201, 93069.1184), mean=[76735.712, 86363.8265], var=[0.0, 37033018.6485])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(124104.8863, 248289.8306), mean=[173923.8671, 198470.8498], var=[27131936.3904, 596632672.0963])</t>
+    <t>Pbox: ~ (range=[(14.7518, 115.6524), mean=[48.3632, 86.8378], var=[0.0, 0.0736])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(248989.9253, 431862.1214), mean=[318296.3344, 372879.7062], var=[157652.0866, 1956685986.0684])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(62124.021, 87575.5714), mean=[68829.313, 80870.2795], var=[0.0, 52832201.0554])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(39726.1631, 252684.4296), mean=[110709.4169, 191833.8257], var=[0.0, 3276814872.6075])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(934112.0023, 2420970.5297), mean=[1220613.3638, 2134469.1682], var=[0.0, 266933481801.9218])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(59.201, 118.4402), mean=[82.9659, 94.6754], var=[6.1739, 135.765])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(340303.2252, 442263.3828), mean=[388680.5183, 393886.0898], var=[125928097.6608, 242652897.043])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(69368.1284, 92478.3794), mean=[76103.2649, 85743.2429], var=[0.0, 37192223.1861])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(134282.9751, 259353.3837), mean=[184491.8571, 209144.5016], var=[27800445.7028, 604060425.6824])</t>
+    <t>Pbox: ~ (range=[(18.9503, 120.5366), mean=[52.8111, 91.5094], var=[0.0, 0.0746])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(257919.6361, 442263.3828), mean=[327783.7455, 382806.3432], var=[160199.5097, 1988303120.5042])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(61461.7293, 86984.8324), mean=[68196.8658, 80249.6959], var=[0.0, 53020855.0982])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(49246.6129, 263747.9827), mean=[120791.1189, 202418.8892], var=[0.0, 3321162517.4653])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1064883.1773, 2676812.1134), mean=[1368878.4128, 2372816.8779], var=[0.0, 319939916414.2347])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(64.0562, 123.7178), mean=[88.0071, 99.767], var=[6.326, 137.4552])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(350849.8522, 453705.5274), mean=[399652.0437, 404903.3358], var=[128149868.74, 246934063.8273])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(68766.0994, 91955.0773), mean=[75534.1451, 85187.0316], var=[0.0, 37367426.6747])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(145352.9041, 271397.5572), mean=[195990.839, 220759.6223], var=[28544919.2862, 612284280.3175])</t>
+    <t>Pbox: ~ (range=[(23.4918, 125.8142), mean=[57.6203, 96.5587], var=[0.0, 0.0756])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(267742.6867, 453705.5274), mean=[338220.4137, 393726.2756], var=[163025.9372, 2023383094.3285])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(60859.7004, 86461.5303), mean=[67627.7461, 79693.4846], var=[0.0, 53228376.0342])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(59592.9656, 275792.1562), mean=[131755.0875, 213936.5424], var=[0.0, 3370296841.168])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1206724.2814, 2944697.8705), mean=[1527941.5253, 2623480.6267], var=[0.0, 378595499965.4826])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(69.3368, 129.4632), mean=[93.4924, 105.3077], var=[6.4955, 139.3265])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3015584.395, 6491531.5732), mean=[3534783.0907, 5972332.8776], var=[0.0, 1786063238112.2336])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(998.8166, 2656.9273), mean=[1246.4869, 2409.257], var=[0.0, 406422.3033])</t>
+    <t>Pbox: ~ (range=[(28.4273, 131.5595), mean=[62.8504, 102.0529], var=[0.0, 0.0767])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(616971.4375, 6486741.6416), mean=[1003243.9788, 5959550.8158], var=[0.0, 6713279754023.965])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-145.3796, 2654.6424), mean=[38.8817, 2403.1597], var=[0.0, 1527620.3899])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -371,10 +374,10 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(4904.9655, 6847.5312), mean=5876.2483, var=73812.048)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(111587.9644, 155781.3347), mean=[132556.5042, 134812.7949], var=[23657883.7027, 45586760.4212])</t>
+    <t>Pbox: ~ (range=[(4169.2206, 6847.5312), mean=[5038.0603, 5650.5496], var=[3497.2929, 311610.2338])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(94849.7698, 155781.3347), mean=[113587.6127, 130010.4156], var=[687565.4578, 182803349.6856])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1549.6768, 2163.4118), mean=1856.5443, var=7367.7962)</t>
@@ -389,19 +392,22 @@
     <t>Pbox: ~ (range=[(9340.7095, 10816.8979), mean=10053.3522, var=[0.0, 0.0])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(70501.0487, 128253.6415), mean=[92866.5868, 105888.1035], var=[3019681.5317, 139526201.5117])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(12389.1667, 70141.7595), mean=[34754.7047, 47776.2214], var=[3019681.5317, 139526201.5117])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(141149.641, 198902.2338), mean=[163515.179, 176536.6958], var=[3019681.5317, 139526201.5117])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10012.1706, 13977.3972), mean=11994.7839, var=307547.237)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(227776.8813, 317985.786), mean=[270578.5277, 275184.1395], var=[98573565.7002, 189943005.0427])</t>
+    <t>Pbox: ~ (range=[(53762.854, 128253.6415), mean=[73970.2095, 101061.5878], var=[206387.5095, 356530418.5915])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-5017.188, 69473.5995), mean=[15190.1675, 42281.5458], var=[206387.5095, 356530418.5915])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(123743.2863, 198234.0738), mean=[143950.6418, 171042.0201], var=[206387.5095, 356530418.5915])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6808.276, 13977.3972), mean=[9701.0017, 11534.0805], var=[2446.6762, 2686836.6315])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(154888.2793, 317985.786), mean=[216700.3139, 265381.3712], var=[125400.4245, 1556397118.0505])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(3098.5625, 4325.7193), mean=3712.1409, var=29456.1429)</t>
@@ -416,256 +422,262 @@
     <t>Pbox: ~ (range=[(18564.8417, 21498.7949), mean=19981.2329, var=[0.0, 0.0])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(151716.365, 264002.4436), mean=[196301.6283, 219417.1803], var=[19005390.6836, 501093925.035])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(56776.483, 169062.5616), mean=[101361.7463, 124477.2982], var=[19005390.6836, 501093925.035])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(302018.6039, 472057.2753), mean=[357082.9102, 416992.969], var=[0.0, 1706541586.634])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10191.6489, 14227.9562), mean=12209.8025, var=318672.2549)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(231860.012, 323686.0026), mean=[275428.9213, 280117.0933], var=[102139303.0739, 196813882.3124])</t>
+    <t>Pbox: ~ (range=[(78827.763, 264002.4436), mean=[142276.6426, 209576.5103], var=[0.0, 2372107736.057])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3511.8, 8146.32), mean=3976.052, var=[858866.2597, 1366654.2596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-24258.439, 165550.7616), mean=[39190.4405, 111124.8282], var=[0.0, 2591200961.0027])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(203577.3272, 467877.3153), mean=[275074.5847, 398997.2624], var=[0.0, 6172263098.6362])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6930.3212, 14227.9562), mean=[9874.902, 11740.8405], var=[2535.1808, 2784028.5483])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(157664.8082, 323686.0026), mean=[220584.886, 270138.6004], var=[129936.5795, 1612697235.9658])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(20383.2978, 28455.9123), mean=24419.605, var=1274689.0196)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(159420.3778, 273465.7036), mean=[204778.7557, 228107.3258], var=[20105233.1266, 514720221.4402])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(64480.4958, 178525.8216), mean=[109838.8736, 133167.4437], var=[20105233.1266, 514720221.4402])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(320591.5796, 604675.5768), mean=[401989.5161, 523277.6404], var=[0.0, 5807773400.5629])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10348.7222, 14447.2368), mean=12397.9795, var=328570.6768)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(235433.4293, 328674.6383), mean=[279673.8208, 284434.2468], var=[105311897.7888, 202927206.6062])</t>
+    <t>Pbox: ~ (range=[(85225.174, 273465.7036), mean=[149786.9626, 218090.521], var=[0.0, 2447565255.8268])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-17861.0281, 175014.0216), mean=[46700.7606, 119638.839], var=[0.0, 2669996454.2244])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(139808.7791, 596983.8168), mean=[245904.2783, 493900.4209], var=[0.0, 23263916409.3872])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7037.1311, 14447.2368), mean=[10027.0936, 11921.7899], var=[2613.9271, 2870504.508])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(160094.7319, 328674.6383), mean=[223984.5315, 274301.9657], var=[133972.5979, 1662789948.3054])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(20697.4443, 28894.4737), mean=24795.959, var=1314282.7071)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(166867.1337, 282452.0928), mean=[212902.3418, 236416.8847], var=[21097911.206, 526783985.9405])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(71927.2517, 187512.2107), mean=[117962.4597, 141477.0027], var=[21097911.206, 526783985.9405])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(346611.3112, 746280.2675), mean=[452562.2932, 640329.2855], var=[0.0, 12986040829.0479])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10486.2507, 14639.2322), mean=12562.7415, var=337361.7321)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(238562.2028, 333042.5333), mean=[283390.5234, 288214.2127], var=[108129564.6812, 208356614.7133])</t>
+    <t>Pbox: ~ (range=[(91528.4363, 282452.0928), mean=[157064.4741, 226245.964], var=[0.0, 2514557224.9725])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-11557.7657, 184000.4107), mean=[53978.2721, 127794.282], var=[0.0, 2739908849.6055])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(82343.4933, 735076.7075), mean=[212871.3225, 601479.5398], var=[0.0, 53933529080.9176])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7130.6505, 14639.2322), mean=[10160.3478, 12080.2235], var=[2683.8639, 2947306.1391])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(162222.2979, 333042.5333), mean=[226961.1558, 277947.2795], var=[137557.0947, 1707278636.5244])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(20972.5013, 29278.4645), mean=25125.4829, var=1349446.9283)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(174143.8214, 291076.8358), mean=[220771.7777, 244448.8796], var=[21989278.6023, 537456813.9007])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(79203.9394, 196136.9538), mean=[125831.8956, 149508.9975], var=[21989278.6023, 537456813.9007])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(379907.7305, 896509.7012), mean=[509027.0576, 767390.3742], var=[0.0, 23662222318.3216])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10607.0946, 14807.9353), mean=12707.5149, var=345182.0729)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(241311.4024, 336880.5277), mean=[286656.3263, 291535.6039], var=[110636102.8277, 213186503.7856])</t>
+    <t>Pbox: ~ (range=[(97803.9165, 291076.8358), mean=[164193.1686, 234143.0332], var=[0.0, 2573948089.5489])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-5282.2855, 192625.1538), mean=[61106.9666, 135691.3511], var=[0.0, 2801856201.8334])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(31153.6878, 881794.3412), mean=[178401.0384, 720567.8517], var=[0.0, 99496923840.1444])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7212.8243, 14807.9353), mean=[10277.436, 12219.4365], var=[2746.0783, 3015627.2804])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(164091.7536, 336880.5277), mean=[229576.6645, 281150.3542], var=[140745.7888, 1746854852.7209])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21214.1892, 29615.8706), mean=25415.0299, var=1380728.2916)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(181340.0847, 299457.6121), mean=[228488.989, 252308.7078], var=[22787127.2343, 546919857.0087])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(86400.2027, 204517.73), mean=[133549.1069, 157368.8258], var=[22787127.2343, 546919857.0087])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(420400.4132, 1055119.9112), mean=[571620.4, 903899.9244], var=[0.0, 38176727025.2903])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10714.1142, 14957.339), mean=12835.7266, var=352182.5949)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(243746.0979, 340279.4617), mean=[289548.5264, 294477.0332], var=[112879876.5713, 217510067.8615])</t>
+    <t>Pbox: ~ (range=[(104120.4359, 299457.6121), mean=[171259.6144, 241884.3218], var=[0.0, 2626698859.3312])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1034.2339, 201005.93), mean=[68173.4124, 143432.6398], var=[0.0, 2856852891.9725])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-13719.5984, 1036892.7512), mean=[147908.4409, 850496.2897], var=[0.0, 161025524160.2234])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7285.5977, 14957.339), mean=[10381.1295, 12342.7237], var=[2801.7705, 3076786.2071])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(165747.3466, 340279.4617), mean=[231892.9632, 283987.0022], var=[143600.207, 1782282230.8757])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21428.2284, 29914.6779), mean=25671.4532, var=1408730.3796)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(188548.2951, 307714.8291), mean=[236158.6359, 260104.4883], var=[23508458.2766, 555366640.1455])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(93608.4131, 212774.9471), mean=[141218.7539, 165164.6063], var=[23508458.2766, 555366640.1455])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(468101.3061, 1221987.3382), mean=[640525.5283, 1049563.116], var=[0.0, 56812445159.6577])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10810.1696, 15091.4363), mean=12950.803, var=358525.76)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(245931.3592, 343330.1752), mean=[292144.4209, 297117.1134], var=[114912957.4397, 221427644.4136])</t>
+    <t>Pbox: ~ (range=[(110549.5438, 307714.8291), mean=[178353.0491, 249575.1065], var=[0.0, 2673848750.0955])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7463.3417, 209263.1471), mean=[75266.847, 151123.4244], var=[0.0, 2905991139.4329])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-52163.7767, 1200248.3782), mean=[123362.91, 990826.1656], var=[0.0, 239268541488.7331])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7350.9154, 15091.4363), mean=[10474.1997, 12453.3801], var=[2852.2333, 3132202.242])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(167233.3242, 343330.1752), mean=[233971.9573, 286533.0359], var=[146186.5921, 1814382938.4217])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21620.3393, 30182.8725), mean=25901.6059, var=1434103.0401)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(195863.8515, 315971.9215), mean=[243888.4233, 267947.3496], var=[24167906.8998, 563000594.056])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(100923.9694, 221032.0394), mean=[148948.5413, 173007.4676], var=[24167906.8998, 563000594.056])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(550423.2868, 1424417.3889), mean=[743285.8795, 1231554.7962], var=[0.0, 79816875611.874])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10898.1211, 15214.2201), mean=13056.1706, var=364383.4213)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(247932.2559, 346123.5084), mean=[294521.307, 299534.4573], var=[116790426.9528, 225045370.9173])</t>
+    <t>Pbox: ~ (range=[(117165.8165, 315971.9215), mean=[185565.7142, 257323.7148], var=[0.0, 2716520429.209])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(14079.6145, 217520.2394), mean=[82479.5121, 158872.0328], var=[0.0, 2950447206.4255])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-56686.151, 1399166.6289), mean=[132210.0075, 1168568.8907], var=[0.0, 334865226057.8002])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7410.7224, 15214.2201), mean=[10559.4177, 12554.7008], var=[2898.8336, 3183376.7514])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(168593.934, 346123.5084), mean=[235875.5524, 288864.2678], var=[148575.0161, 1844026668.1447])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21796.2423, 30428.4403), mean=26112.3413, var=1457533.6853)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(203385.5077, 324355.6789), mean=[251789.4224, 275951.7642], var=[24778652.2246, 570034682.731])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(108445.6257, 229415.7969), mean=[156849.5404, 181011.8822], var=[24778652.2246, 570034682.731])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(640266.9238, 1635231.197), mean=[852894.0016, 1422604.1192], var=[0.0, 107401307340.9208])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10980.8289, 15329.6836), mean=13155.2563, var=369935.1497)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(249813.858, 348750.3014), mean=[296756.4817, 301807.6777], var=[118569840.3215, 228474151.4434])</t>
+    <t>Pbox: ~ (range=[(124047.1858, 324355.6789), mean=[192993.2471, 265241.8401], var=[0.0, 2755884835.9437])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(20960.9838, 225903.9969), mean=[89907.0451, 166790.158], var=[0.0, 2991445202.9681])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-54327.156, 1606468.637), mean=[147533.0238, 1356271.991], var=[0.0, 448228091482.0119])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7466.9637, 15329.6836), mean=[10639.555, 12649.9806], var=[2943.0001, 3231878.5275])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(169873.4234, 348750.3014), mean=[237665.654, 291056.5102], var=[150838.698, 1872122170.4143])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(21961.6578, 30659.3672), mean=26310.5125, var=1479740.599)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(211215.732, 332996.6054), mean=[259976.4249, 284235.9124], var=[25359660.1377, 576687018.6706])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(116275.8499, 238056.7233), mean=[165036.5429, 189296.0304], var=[25359660.1377, 576687018.6706])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(737940.7849, 1854685.9316), mean=[969743.4678, 1622883.2487], var=[0.0, 139748118737.3039])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(11061.1532, 15441.8195), mean=13251.4864, var=375367.0628)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(251641.2353, 351301.3943), mean=[298927.2422, 304015.3874], var=[120310851.0364, 231828933.272])</t>
+    <t>Pbox: ~ (range=[(10658.4427, 16005.2479), mean=[11139.6998, 15446.3164], var=[0.0, 7145228.2953])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(136768.8444, 340903.0044), mean=[206228.5611, 281351.253], var=[0.0, 2915270030.2022])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(33682.6424, 242451.3224), mean=[103142.3591, 182899.5709], var=[0.0, 3157901733.5061])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-39246.5023, 1830317.9706), mean=[175209.9671, 1561825.3309], var=[0.0, 581670161811.7163])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7521.5842, 15441.8195), mean=[10717.3829, 12742.5147], var=[2986.2134, 3279333.556])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(171116.04, 351301.3943), mean=[239404.1677, 293185.5757], var=[153053.5259, 1899611325.7456])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22122.3064, 30883.6391), mean=26502.9727, var=1501468.2511)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(219461.1008, 342029.3133), mean=[268568.3383, 292922.0758], var=[25931938.1884, 583183599.4559])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(124521.2188, 247089.4313), mean=[173628.4563, 197982.1938], var=[25931938.1884, 583183599.4559])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(843860.015, 2083173.3741), mean=[1094323.4739, 1832709.9152], var=[0.0, 177019874510.2789])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(11141.9542, 15554.621), mean=13348.2876, var=380871.1552)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(253479.4575, 353867.6273), mean=[301110.8855, 306236.1993], var=[122074996.3471, 235228293.5293])</t>
+    <t>Pbox: ~ (range=[(144429.4526, 349935.7123), mean=[214388.0734, 289958.6222], var=[0.0, 2952483126.5549])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(41343.2505, 251484.0303), mean=[111301.8714, 191506.9402], var=[0.0, 3196606444.28])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-16505.2405, 2063200.0121), mean=[210169.1773, 1777452.6314], var=[0.0, 734161254634.7053])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7576.5288, 15554.621), mean=[10795.6727, 12835.5979], var=[3030.0009, 3327419.1681])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(172366.0311, 353867.6273), mean=[241152.999, 295327.2765], var=[155297.7844, 1927465757.6921])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22283.9084, 31109.242), mean=26696.5752, var=1523484.6207)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(228232.7317, 351592.9558), mean=[277688.6156, 302137.0719], var=[26515610.1174, 589753619.0435])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(133292.8497, 256653.0738), mean=[182748.7336, 207197.1898], var=[26515610.1174, 589753619.0435])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(958550.8759, 2321224.4591), mean=[1227226.8955, 2052548.4396], var=[0.0, 219361962642.4353])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(11226.0921, 15672.0809), mean=13449.0865, var=386645.1318)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(255393.5945, 356539.8404), mean=[303384.7088, 308548.7261], var=[123925643.6326, 238794335.8468])</t>
+    <t>Pbox: ~ (range=[(152612.8523, 359499.3548), mean=[223073.3933, 299094.3653], var=[0.0, 2990152832.8116])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(49526.6503, 261047.6728), mean=[119987.1913, 200642.6832], var=[0.0, 3235776455.2324])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(14419.421, 2305645.6962), mean=[252979.097, 2003459.2306], var=[0.0, 906052830477.5538])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7633.7426, 15672.0809), mean=[10877.1956, 12932.5253], var=[3075.9355, 3377862.5794])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(173667.6443, 356539.8404), mean=[242974.0533, 297557.4251], var=[157652.0866, 1956685986.0684])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22452.1841, 31344.1618), mean=26898.173, var=1546580.5271)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(237646.7571, 361831.7014), mean=[287465.7379, 312012.7206], var=[27131936.3904, 596632672.0963])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(142706.8751, 266891.8193), mean=[192525.8559, 217072.8385], var=[27131936.3904, 596632672.0963])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1082655.7623, 2569514.2897), mean=[1369157.1238, 2283012.9282], var=[0.0, 266933481801.9219])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(11316.4271, 15798.1922), mean=13557.3097, var=392892.7419)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(257448.7161, 359408.8737), mean=[305826.0091, 311031.5807], var=[125928097.6608, 242652897.043])</t>
+    <t>Pbox: ~ (range=[(161414.3539, 369738.1004), mean=[232397.6077, 308887.4965], var=[0.0, 3029629166.1783])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(58328.1519, 271286.4184), mean=[129311.4056, 210435.8145], var=[0.0, 3276814872.6075])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(54145.5841, 2558330.1258), mean=[304276.9783, 2240300.5528], var=[0.0, 1097803983456.391])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7695.1704, 15798.1922), mean=[10964.7231, 13036.5917], var=[3125.638, 3432443.8132])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(175065.1269, 359408.8737), mean=[244929.2364, 299951.834], var=[160199.5097, 1988303120.5042])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22632.8542, 31596.3845), mean=27114.6193, var=1571570.9674)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(247824.8458, 372895.2545), mean=[298033.7279, 322686.3724], var=[27800445.7028, 604060425.6824])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(152884.9638, 277955.3724), mean=[203093.8459, 227746.4904], var=[27800445.7028, 604060425.6824])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1216938.7373, 2828867.6734), mean=[1520933.9728, 2524872.4379], var=[0.0, 319939916414.2348])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(11415.8194, 15936.948), mean=13676.3837, var=399824.6161)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(259709.8921, 362565.5673), mean=[308512.0836, 313763.3758], var=[128149868.74, 246934063.8273])</t>
+    <t>Pbox: ~ (range=[(170934.8037, 380801.6535), mean=[242479.3097, 319472.56], var=[0.0, 3072299776.883])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(67848.6017, 282349.9715), mean=[139393.1076, 221020.8779], var=[0.0, 3321162517.4653])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(103392.197, 2822078.1085), mean=[364771.4703, 2488670.6542], var=[0.0, 1309940297684.09])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7762.7572, 15936.948), mean=[11061.0264, 13151.0923], var=[3180.7842, 3493003.0096])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(176602.7266, 362565.5673), mean=[247080.4536, 302586.3156], var=[163025.9372, 2023383094.3284])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(22831.6389, 31873.896), mean=27352.7674, var=1599298.4642)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(258894.7749, 384939.428), mean=[309532.7098, 334301.493], var=[28544919.2862, 612284280.3175])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(163954.8929, 289999.5459), mean=[214592.8278, 239361.611], var=[28544919.2862, 612284280.3175])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1362291.6414, 3100265.2305), mean=[1683508.8853, 2779047.9867], var=[0.0, 378595499965.4826])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(156115.5322, 217943.6295), mean=[170793.8555, 203265.3063], var=[0.0, 367120834.652])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3551628.3587, 4958217.5723), mean=[3866281.0964, 4643564.8345], var=[0.0, 204838819002.7787])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(4314167.9193, 5720757.1329), mean=[4628820.6571, 5406104.3952], var=[0.0, 204838819002.7788])</t>
+    <t>Pbox: ~ (range=[(181281.1564, 392845.827), mean=[253443.2783, 330990.2131], var=[0.0, 3119589192.9352])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(78194.9544, 294394.145), mean=[150357.0763, 232538.5311], var=[0.0, 3370296841.168])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(162985.1627, 3097870.2647), mean=[435336.057, 2749344.0204], var=[0.0, 1543069713890.1392])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(106992.4061, 217943.6295), mean=[119750.5628, 201543.252], var=[0.0, 2016740092.3288])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2434077.2378, 4958217.5723), mean=[2705188.0681, 4609709.549], var=[0.0, 1075942302481.8154])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3196616.7985, 5720757.1329), mean=[3467727.6288, 5372249.1096], var=[0.0, 1075942302481.815])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(44929.5523, 62723.4815), mean=[49147.1006, 58505.9332], var=[0.0, 30524353.2156])</t>
@@ -677,25 +689,31 @@
     <t>Pbox: ~ (range=[(129890.6501, 274683.2811), mean=[155025.7958, 249548.1353], var=[0.0, 2867248434.3163])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(269248.4936, 311800.0266), mean=[269660.9066, 311317.7201], var=[0.0, 452630730.611])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1087721.1159, 1419105.4914), mean=[1132671.2675, 1374155.3398], var=[0.0, 17496476200.7255])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2895062.4279, 4633036.017), mean=[3216279.6718, 4311818.7732], var=[0.0, 378595499965.4825])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1507792.1975, 3245765.7866), mean=[1829009.4414, 2924548.5428], var=[0.0, 378595499965.4825])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1046924.6414, 2784898.2305), mean=[1368141.8853, 2463680.9867], var=[0.0, 378595499965.4826])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(499.4083, 1328.4637), mean=[652.6367, 1175.2353], var=[0.0, 86150.172])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(9940504.613, 23181707.8482), mean=[11102043.5479, 22020168.9133], var=[0.0, 35238007242432.38])</t>
+    <t>Pbox: ~ (range=[(221810.0994, 278838.7446), mean=[222291.3565, 278277.1671], var=[0.0, 813029709.5955])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1040282.7217, 1386144.2093), mean=[1085232.8733, 1341194.0577], var=[0.0, 19455275066.2356])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1810472.5892, 4680474.4112), mean=[2082823.4835, 4331948.1669], var=[0.0, 1463669734226.5837])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(49833.36, 114716.64), mean=[50105.4364, 103586.4372], var=[0.0, 897900952.0362])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1437103.5904, 1501986.8704), mean=[1437375.6668, 1490856.6676], var=[0.0, 897900952.0362])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(308485.7187, 3243370.8208), mean=[580836.613, 2894844.5764], var=[0.0, 1543069713890.1392])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-152381.8373, 2782503.2647), mean=[119969.057, 2433977.0204], var=[0.0, 1543069713890.1394])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72.6898, 1327.3212), mean=[57.2281, 1161.0658], var=[0.0, 351128.6352])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(851716.5135, 22968980.8277), mean=[1648652.8373, 21807441.8929], var=[0.0, 109798614662016.64])</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1140,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1132,43 +1150,43 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1176,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1185,43 +1203,43 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1232,57 +1250,57 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>58111.88202809718</v>
-      </c>
-      <c r="D4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="E4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="F4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="G4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="H4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="I4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="J4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="K4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="L4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="M4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="N4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="O4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="P4">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="Q4">
-        <v>94939.88202809718</v>
+        <v>58780.04202809719</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1291,46 +1309,46 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1450,52 +1468,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1509,46 +1527,46 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1556,55 +1574,55 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1675,287 +1693,287 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="R2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="R6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2011,7 +2029,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2020,54 +2038,54 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2123,7 +2141,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2179,7 +2197,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>89000</v>
@@ -2235,10 +2253,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -2247,51 +2265,51 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2347,231 +2365,231 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="R15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="Q17" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="R17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2627,10 +2645,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2639,107 +2657,107 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="R20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2795,7 +2813,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2851,63 +2869,63 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
+        <v>668.16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>136</v>
+      </c>
+      <c r="R23" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2963,7 +2981,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3019,58 +3037,58 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>58111.88202809718</v>
-      </c>
-      <c r="D26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="E26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="F26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="G26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="H26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="I26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="J26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="K26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="L26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="M26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="N26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="O26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="P26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="Q26">
-        <v>94939.88202809718</v>
-      </c>
-      <c r="R26">
-        <v>1387270.230421458</v>
+        <v>58780.04202809719</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3081,52 +3099,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J27" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="R27" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3187,7 +3205,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29">
         <v>158000</v>
@@ -3243,58 +3261,58 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3355,58 +3373,58 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R32" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3414,111 +3432,111 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34">
         <v>168796</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="R34" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
